--- a/data/financial_statements/soci/PTC.xlsx
+++ b/data/financial_statements/soci/PTC.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -125,9 +242,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -180,12 +294,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -490,129 +601,129 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
         <v>507925000</v>
@@ -627,7 +738,7 @@
         <v>457721000</v>
       </c>
       <c r="F2">
-        <v>480656000</v>
+        <v>480656100</v>
       </c>
       <c r="G2">
         <v>435668000</v>
@@ -733,8 +844,8 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
         <v>0.0567</v>
@@ -855,23 +966,23 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>104635000</v>
+        <v>95530000</v>
       </c>
       <c r="C4">
-        <v>110926000</v>
+        <v>101995000</v>
       </c>
       <c r="D4">
-        <v>101787000</v>
+        <v>93337000</v>
       </c>
       <c r="E4">
-        <v>103602000</v>
+        <v>95118000</v>
       </c>
       <c r="F4">
-        <v>107436000</v>
+        <v>99747000</v>
       </c>
       <c r="G4">
         <v>95077000</v>
@@ -977,23 +1088,23 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>403290000</v>
+        <v>412395100</v>
       </c>
       <c r="C5">
-        <v>351548000</v>
+        <v>360479000</v>
       </c>
       <c r="D5">
-        <v>403440000</v>
+        <v>411890000</v>
       </c>
       <c r="E5">
-        <v>354119000</v>
+        <v>362603000</v>
       </c>
       <c r="F5">
-        <v>373220000</v>
+        <v>380909100</v>
       </c>
       <c r="G5">
         <v>340591000</v>
@@ -1099,8 +1210,8 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
         <v>88183000</v>
@@ -1221,8 +1332,8 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
         <v>169743000</v>
@@ -1237,7 +1348,7 @@
         <v>177416000</v>
       </c>
       <c r="F7">
-        <v>178053000</v>
+        <v>178052900</v>
       </c>
       <c r="G7">
         <v>181496000</v>
@@ -1343,8 +1454,8 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
         <v>146017000</v>
@@ -1465,8 +1576,8 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
         <v>15285000</v>
@@ -1506,23 +1617,23 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
-        <v>900000</v>
+        <v>15285000</v>
       </c>
       <c r="C10">
-        <v>600000</v>
+        <v>13758000</v>
       </c>
       <c r="D10">
-        <v>500000</v>
+        <v>12239000</v>
       </c>
       <c r="E10">
-        <v>500000</v>
+        <v>12986000</v>
       </c>
       <c r="F10">
-        <v>500000</v>
+        <v>12857000</v>
       </c>
       <c r="G10">
         <v>13178000</v>
@@ -1592,23 +1703,23 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
-        <v>-27306000</v>
+        <v>-8639000</v>
       </c>
       <c r="C11">
-        <v>43742000</v>
+        <v>20801000</v>
       </c>
       <c r="D11">
-        <v>46972000</v>
+        <v>-55624000</v>
       </c>
       <c r="E11">
-        <v>25257000</v>
+        <v>-6802000</v>
       </c>
       <c r="F11">
-        <v>68070000</v>
+        <v>54384000</v>
       </c>
       <c r="G11">
         <v>-15113000</v>
@@ -1714,8 +1825,8 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
         <v>137378000</v>
@@ -1836,8 +1947,8 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
         <v>30541000</v>
@@ -1958,8 +2069,8 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
         <v>106837000</v>
@@ -2080,8 +2191,8 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2109,8 +2220,8 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
         <v>106837000</v>
@@ -2231,23 +2342,23 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="C17">
         <v>0.6</v>
       </c>
       <c r="D17">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
       <c r="E17">
         <v>0.39</v>
       </c>
       <c r="F17">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="G17">
         <v>0.44</v>
@@ -2353,8 +2464,8 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
         <v>0.9</v>
@@ -2475,11 +2586,11 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
-        <v>117431000</v>
+        <v>117194000</v>
       </c>
       <c r="C19">
         <v>117073000</v>
@@ -2491,7 +2602,7 @@
         <v>117347000</v>
       </c>
       <c r="F19">
-        <v>117230000</v>
+        <v>116836000</v>
       </c>
       <c r="G19">
         <v>116934000</v>
@@ -2597,11 +2708,11 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
-        <v>118634000</v>
+        <v>118233000</v>
       </c>
       <c r="C20">
         <v>117968000</v>
@@ -2613,7 +2724,7 @@
         <v>118598000</v>
       </c>
       <c r="F20">
-        <v>118921000</v>
+        <v>118367000</v>
       </c>
       <c r="G20">
         <v>118611000</v>
@@ -2719,23 +2830,23 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
-        <v>0.794</v>
+        <v>0.8119</v>
       </c>
       <c r="C21">
-        <v>0.7601</v>
+        <v>0.7795</v>
       </c>
       <c r="D21">
-        <v>0.7985</v>
+        <v>0.8153</v>
       </c>
       <c r="E21">
-        <v>0.7737000000000001</v>
+        <v>0.7922</v>
       </c>
       <c r="F21">
-        <v>0.7765</v>
+        <v>0.7925</v>
       </c>
       <c r="G21">
         <v>0.7818000000000001</v>
@@ -2841,8 +2952,8 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
         <v>0.2875</v>
@@ -2963,8 +3074,8 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
         <v>0.2705</v>
@@ -3085,8 +3196,8 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
         <v>0.2103</v>
@@ -3207,23 +3318,23 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
-        <v>177677000</v>
+        <v>176452000</v>
       </c>
       <c r="C25">
-        <v>121391000</v>
+        <v>110578000</v>
       </c>
       <c r="D25">
-        <v>191587000</v>
+        <v>189246000</v>
       </c>
       <c r="E25">
-        <v>119307000</v>
+        <v>93126000</v>
       </c>
       <c r="F25">
-        <v>148797000</v>
+        <v>146971100</v>
       </c>
       <c r="G25">
         <v>105158000</v>
@@ -3329,8 +3440,8 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
         <v>146017100</v>
@@ -3451,8 +3562,8 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
         <v>106837000</v>
@@ -3573,8 +3684,8 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
         <v>106837000</v>
@@ -3695,8 +3806,8 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
         <v>0.9103</v>
@@ -3817,8 +3928,8 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
         <v>0.9008</v>
@@ -3939,8 +4050,8 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
         <v>0.9103</v>
@@ -4061,8 +4172,8 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
         <v>0.9008</v>
@@ -4183,8 +4294,8 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B33">
         <v>118634000</v>
@@ -4305,23 +4416,23 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
-        <v>0.3498</v>
+        <v>0.3474</v>
       </c>
       <c r="C34">
-        <v>0.2625</v>
+        <v>0.2391</v>
       </c>
       <c r="D34">
-        <v>0.3792</v>
+        <v>0.3746</v>
       </c>
       <c r="E34">
-        <v>0.2607</v>
+        <v>0.2035</v>
       </c>
       <c r="F34">
-        <v>0.3096</v>
+        <v>0.3058</v>
       </c>
       <c r="G34">
         <v>0.2414</v>
@@ -4427,23 +4538,23 @@
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B35">
-        <v>0.0818</v>
+        <v>0.07580000000000001</v>
       </c>
       <c r="C35">
-        <v>0.268</v>
+        <v>0.2525</v>
       </c>
       <c r="D35">
-        <v>0.2837</v>
+        <v>0.2817</v>
       </c>
       <c r="E35">
-        <v>0.306</v>
+        <v>0.3009</v>
       </c>
       <c r="F35">
-        <v>0.0819</v>
+        <v>0.09429999999999999</v>
       </c>
       <c r="G35">
         <v>0.2021</v>
